--- a/public/Reliance Industries Ltd._Governance.xlsx
+++ b/public/Reliance Industries Ltd._Governance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6166" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6166" uniqueCount="956">
   <si>
     <t>Key Issues</t>
   </si>
@@ -2687,49 +2687,10 @@
     <t>12,13</t>
   </si>
   <si>
-    <t>21.07.2017</t>
-  </si>
-  <si>
-    <t>17.10.2018</t>
-  </si>
-  <si>
-    <t>16.04.1992</t>
-  </si>
-  <si>
-    <t>18.10.2019</t>
-  </si>
-  <si>
-    <t>26.06.1986</t>
-  </si>
-  <si>
-    <t>09.06.2007</t>
-  </si>
-  <si>
-    <t>20.12.2013</t>
-  </si>
-  <si>
-    <t>04.08.1995</t>
-  </si>
-  <si>
-    <t>12.06.2015</t>
-  </si>
-  <si>
-    <t>16.05.2010</t>
-  </si>
-  <si>
-    <t>27.09.1997</t>
-  </si>
-  <si>
-    <t>27.09.1977</t>
-  </si>
-  <si>
     <t>196667_2020_BOIR017</t>
   </si>
   <si>
     <t>196667_2019_BOIR017</t>
-  </si>
-  <si>
-    <t>12.08.2019</t>
   </si>
   <si>
     <t>Shri Mansingh L. Bhakta was on the Board
@@ -3053,6 +3014,45 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SECRETARIAL AUDITOR The Board had appointed Dr. K.R. Chandratre, Practising Company Secretary, to conduct Secretarial Audit for the financial year 2019-20. The Secretarial Audit Report for the financial year ended March 31, 2020 is annexed herewith and marked as Annexure IV to this Report. The Secretarial Audit Report does not contain any qualification, reservation or adverse remark; I have conducted the Secretarial Audit of
+the compliance of applicable statutory
+provisions and the adherence to good
+corporate practices by Reliance Industries
+Limited (hereinafter called “the Company”).
+Secretarial Audit was conducted in a
+manner that provided me a reasonable
+basis for evaluating the corporate conducts/
+statutory compliances and expressing my
+opinion thereon.</t>
+  </si>
+  <si>
+    <t>111, 116</t>
+  </si>
+  <si>
+    <t>Annual report_2019-20</t>
+  </si>
+  <si>
+    <t>Annual report_2018-19</t>
+  </si>
+  <si>
+    <t>The Board had appointed Dr. K.R. Chandratre, Practising Company Secretary, to conduct Secretarial Audit for the financial year 2018-19. The Secretarial Audit Report for the financial year ended March 31, 2019 is annexed herewith and marked as Annexure IV to this Report. The Secretarial Audit Report does not contain any qualification, reservation or adverse remark.; I have conducted the secretarial audit of
+the compliance of applicable statutory
+provisions and the adherence to good
+corporate practices by Reliance Industries
+Limited (hereinafter called ‘the Company’).
+Secretarial Audit was conducted in a
+manner that provided me a reasonable
+basis for evaluating the corporate
+conducts/statutory compliances and
+expressing my opinion thereon.</t>
+  </si>
+  <si>
+    <t>196667_2019-20_AUDC003</t>
+  </si>
+  <si>
+    <t>The regulations for the management of the Company and for the observance by the members thereto and their representatives, shall, subject to any exercise of the statutory powers of the Company with reference to the deletion or alteration of or addition to its regulations by resolution as prescribed or permitted by the Companies Act, 2013, be such as are contained in these Articles.</t>
   </si>
 </sst>
 </file>
@@ -3525,7 +3525,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3854,6 +3854,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4883,7 +4886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4894,7 +4897,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -4958,7 +4961,7 @@
         <v>750</v>
       </c>
       <c r="H2" s="117" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -7510,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7522,12 +7525,11 @@
     <col min="4" max="4" width="26.25" style="58" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="7.625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="58" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="58" customWidth="1"/>
     <col min="8" max="8" width="18" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="82" customWidth="1"/>
-    <col min="11" max="11" width="36.75" style="58" customWidth="1"/>
-    <col min="12" max="12" width="38.625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="6" style="58" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="82" customWidth="1"/>
+    <col min="11" max="12" width="20.25" style="58" customWidth="1"/>
     <col min="13" max="13" width="20.75" style="125" customWidth="1"/>
     <col min="14" max="14" width="26.25" style="130" customWidth="1"/>
     <col min="15" max="15" width="22" style="58" customWidth="1"/>
@@ -7676,7 +7678,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J2" s="81">
         <v>43921</v>
@@ -7715,11 +7717,11 @@
       </c>
       <c r="AF2" s="61"/>
       <c r="AG2" s="62"/>
-      <c r="AJ2" s="132" t="s">
+      <c r="AJ2" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="135"/>
     </row>
     <row r="3" spans="1:38" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="54" t="s">
@@ -7780,7 +7782,7 @@
         <v>752</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U3" s="28"/>
       <c r="V3" s="112" t="s">
@@ -7826,16 +7828,26 @@
         <v>12</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J4" s="81">
         <v>43921</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="28"/>
+      <c r="K4" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>755</v>
+      </c>
+      <c r="M4" s="119">
+        <v>102</v>
+      </c>
+      <c r="N4" s="127">
+        <v>44005</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>751</v>
+      </c>
       <c r="P4" s="28" t="s">
         <v>752</v>
       </c>
@@ -8075,7 +8087,7 @@
         <v>275</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -8189,7 +8201,7 @@
         <v>42980</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>752</v>
@@ -8204,7 +8216,7 @@
         <v>752</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U8" s="28"/>
       <c r="V8" s="112" t="s">
@@ -8214,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="X8" s="103" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="Y8" s="28"/>
       <c r="Z8" s="63"/>
@@ -8289,7 +8301,7 @@
         <v>44005</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>752</v>
@@ -8304,7 +8316,7 @@
         <v>752</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U9" s="28"/>
       <c r="V9" s="112" t="s">
@@ -8314,7 +8326,7 @@
         <v>50</v>
       </c>
       <c r="X9" s="103" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="63"/>
@@ -8404,7 +8416,7 @@
         <v>752</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U10" s="28"/>
       <c r="V10" s="112" t="s">
@@ -8479,13 +8491,13 @@
         <v>755</v>
       </c>
       <c r="M11" s="119" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="N11" s="127">
         <v>44005</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="P11" s="28" t="s">
         <v>757</v>
@@ -8500,7 +8512,7 @@
         <v>752</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="U11" s="28"/>
       <c r="V11" s="112" t="s">
@@ -8510,7 +8522,7 @@
         <v>39</v>
       </c>
       <c r="X11" s="28" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="63"/>
@@ -8792,7 +8804,7 @@
         <v>752</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U14" s="28"/>
       <c r="V14" s="112" t="s">
@@ -8873,7 +8885,7 @@
         <v>44005</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>752</v>
@@ -8888,7 +8900,7 @@
         <v>752</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U15" s="28"/>
       <c r="V15" s="112" t="s">
@@ -8898,7 +8910,7 @@
         <v>50</v>
       </c>
       <c r="X15" s="103" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="Y15" s="28"/>
       <c r="Z15" s="63"/>
@@ -8973,7 +8985,7 @@
         <v>43615</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>752</v>
@@ -8988,7 +9000,7 @@
         <v>752</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U16" s="28"/>
       <c r="V16" s="112" t="s">
@@ -8998,7 +9010,7 @@
         <v>39</v>
       </c>
       <c r="X16" s="103" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="Y16" s="28"/>
       <c r="Z16" s="63"/>
@@ -9079,7 +9091,7 @@
         <v>752</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U17" s="28"/>
       <c r="V17" s="112" t="s">
@@ -9225,7 +9237,7 @@
         <v>752</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="U19" s="28"/>
       <c r="V19" s="112" t="s">
@@ -9235,7 +9247,7 @@
         <v>43</v>
       </c>
       <c r="X19" s="28" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="Y19" s="28"/>
       <c r="Z19" s="63"/>
@@ -9301,7 +9313,7 @@
         <v>752</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U20" s="28"/>
       <c r="V20" s="112" t="s">
@@ -9373,7 +9385,7 @@
         <v>752</v>
       </c>
       <c r="T21" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U21" s="28"/>
       <c r="V21" s="112" t="s">
@@ -9445,7 +9457,7 @@
         <v>752</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U22" s="28"/>
       <c r="V22" s="112" t="s">
@@ -9517,7 +9529,7 @@
         <v>752</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U23" s="30" t="s">
         <v>777</v>
@@ -9529,7 +9541,7 @@
         <v>45</v>
       </c>
       <c r="X23" s="28" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="63"/>
@@ -9667,7 +9679,7 @@
         <v>752</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U25" s="28"/>
       <c r="V25" s="112" t="s">
@@ -9811,7 +9823,7 @@
         <v>752</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U27" s="28"/>
       <c r="V27" s="112" t="s">
@@ -9883,7 +9895,7 @@
         <v>752</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U28" s="28"/>
       <c r="V28" s="112" t="s">
@@ -10027,7 +10039,7 @@
         <v>752</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="U30" s="28"/>
       <c r="V30" s="112" t="s">
@@ -10037,7 +10049,7 @@
         <v>45</v>
       </c>
       <c r="X30" s="28" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="Y30" s="28"/>
       <c r="Z30" s="63"/>
@@ -10103,7 +10115,7 @@
         <v>752</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U31" s="28"/>
       <c r="V31" s="112" t="s">
@@ -10175,7 +10187,7 @@
         <v>752</v>
       </c>
       <c r="T32" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U32" s="28"/>
       <c r="V32" s="112" t="s">
@@ -10247,7 +10259,7 @@
         <v>752</v>
       </c>
       <c r="T33" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U33" s="28"/>
       <c r="V33" s="112" t="s">
@@ -10535,7 +10547,7 @@
         <v>752</v>
       </c>
       <c r="T37" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U37" s="28"/>
       <c r="V37" s="112" t="s">
@@ -10823,7 +10835,7 @@
         <v>752</v>
       </c>
       <c r="T41" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U41" s="28"/>
       <c r="V41" s="112" t="s">
@@ -11015,7 +11027,7 @@
         <v>752</v>
       </c>
       <c r="T44" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U44" s="28"/>
       <c r="V44" s="112" t="s">
@@ -11087,7 +11099,7 @@
         <v>752</v>
       </c>
       <c r="T45" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U45" s="28"/>
       <c r="V45" s="112" t="s">
@@ -11144,7 +11156,7 @@
         <v>42615</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="P46" s="28" t="s">
         <v>752</v>
@@ -11159,7 +11171,7 @@
         <v>752</v>
       </c>
       <c r="T46" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U46" s="28"/>
       <c r="V46" s="112" t="s">
@@ -11169,7 +11181,7 @@
         <v>39</v>
       </c>
       <c r="X46" s="103" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="Y46" s="28"/>
       <c r="Z46" s="63"/>
@@ -11235,7 +11247,7 @@
         <v>752</v>
       </c>
       <c r="T47" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U47" s="28"/>
       <c r="V47" s="112" t="s">
@@ -11580,7 +11592,7 @@
         <v>44005</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="P52" s="28" t="s">
         <v>752</v>
@@ -11595,7 +11607,7 @@
         <v>752</v>
       </c>
       <c r="T52" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U52" s="28"/>
       <c r="V52" s="112" t="s">
@@ -11605,7 +11617,7 @@
         <v>39</v>
       </c>
       <c r="X52" s="103" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="Y52" s="28"/>
       <c r="Z52" s="63"/>
@@ -11656,7 +11668,7 @@
         <v>44005</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="P53" s="30" t="s">
         <v>752</v>
@@ -11671,7 +11683,7 @@
         <v>752</v>
       </c>
       <c r="T53" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U53" s="28"/>
       <c r="V53" s="112" t="s">
@@ -11681,7 +11693,7 @@
         <v>43</v>
       </c>
       <c r="X53" s="103" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="Y53" s="28"/>
       <c r="Z53" s="63"/>
@@ -11737,7 +11749,7 @@
         <v>43</v>
       </c>
       <c r="X54" s="28" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="Y54" s="28"/>
       <c r="Z54" s="63"/>
@@ -11775,16 +11787,24 @@
       <c r="J55" s="81">
         <v>43921</v>
       </c>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="119"/>
+      <c r="K55" s="28" t="s">
+        <v>951</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="M55" s="120" t="s">
+        <v>950</v>
+      </c>
       <c r="N55" s="127"/>
-      <c r="O55" s="28"/>
+      <c r="O55" s="132" t="s">
+        <v>949</v>
+      </c>
       <c r="P55" s="28" t="s">
         <v>752</v>
       </c>
       <c r="Q55" s="28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>752</v>
@@ -11923,7 +11943,7 @@
         <v>752</v>
       </c>
       <c r="T57" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U57" s="28"/>
       <c r="V57" s="112" t="s">
@@ -12040,7 +12060,7 @@
         <v>44005</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="P59" s="28" t="s">
         <v>752</v>
@@ -12055,7 +12075,7 @@
         <v>752</v>
       </c>
       <c r="T59" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U59" s="28"/>
       <c r="V59" s="112" t="s">
@@ -12065,7 +12085,7 @@
         <v>39</v>
       </c>
       <c r="X59" s="103" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="Y59" s="28"/>
       <c r="Z59" s="63"/>
@@ -12306,7 +12326,7 @@
         <v>44005</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="P63" s="28" t="s">
         <v>752</v>
@@ -12321,7 +12341,7 @@
         <v>752</v>
       </c>
       <c r="T63" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U63" s="28"/>
       <c r="V63" s="112" t="s">
@@ -12331,7 +12351,7 @@
         <v>39</v>
       </c>
       <c r="X63" s="103" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="Y63" s="28"/>
       <c r="Z63" s="63"/>
@@ -12397,7 +12417,7 @@
         <v>752</v>
       </c>
       <c r="T64" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="112" t="s">
@@ -12469,7 +12489,7 @@
         <v>752</v>
       </c>
       <c r="T65" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U65" s="28"/>
       <c r="V65" s="112" t="s">
@@ -12672,7 +12692,7 @@
         <v>43615</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="P68" s="28" t="s">
         <v>752</v>
@@ -12687,7 +12707,7 @@
         <v>752</v>
       </c>
       <c r="T68" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U68" s="28"/>
       <c r="V68" s="112" t="s">
@@ -12697,7 +12717,7 @@
         <v>39</v>
       </c>
       <c r="X68" s="103" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="Y68" s="28"/>
       <c r="Z68" s="63"/>
@@ -12868,7 +12888,7 @@
         <v>43615</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="P71" s="28" t="s">
         <v>752</v>
@@ -12883,7 +12903,7 @@
         <v>752</v>
       </c>
       <c r="T71" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U71" s="28"/>
       <c r="V71" s="112" t="s">
@@ -12893,7 +12913,7 @@
         <v>39</v>
       </c>
       <c r="X71" s="103" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="Y71" s="28"/>
       <c r="Z71" s="63"/>
@@ -13019,7 +13039,7 @@
         <v>752</v>
       </c>
       <c r="T73" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U73" s="28"/>
       <c r="V73" s="112" t="s">
@@ -13254,7 +13274,7 @@
         <v>43615</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="P77" s="28" t="s">
         <v>752</v>
@@ -13269,7 +13289,7 @@
         <v>752</v>
       </c>
       <c r="T77" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U77" s="28"/>
       <c r="V77" s="112" t="s">
@@ -13279,7 +13299,7 @@
         <v>39</v>
       </c>
       <c r="X77" s="103" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="Y77" s="28"/>
       <c r="Z77" s="63"/>
@@ -13837,7 +13857,7 @@
         <v>752</v>
       </c>
       <c r="T85" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U85" s="28"/>
       <c r="V85" s="112" t="s">
@@ -13909,7 +13929,7 @@
         <v>752</v>
       </c>
       <c r="T86" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U86" s="28"/>
       <c r="V86" s="112" t="s">
@@ -14101,7 +14121,7 @@
         <v>752</v>
       </c>
       <c r="T89" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U89" s="28"/>
       <c r="V89" s="112" t="s">
@@ -14205,16 +14225,26 @@
       <c r="J91" s="81">
         <v>43921</v>
       </c>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="119"/>
-      <c r="N91" s="127"/>
-      <c r="O91" s="28"/>
+      <c r="K91" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="L91" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="M91" s="119">
+        <v>29</v>
+      </c>
+      <c r="N91" s="127">
+        <v>42980</v>
+      </c>
+      <c r="O91" t="s">
+        <v>955</v>
+      </c>
       <c r="P91" s="28" t="s">
         <v>752</v>
       </c>
       <c r="Q91" s="28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="R91" s="28" t="s">
         <v>752</v>
@@ -14293,7 +14323,7 @@
         <v>752</v>
       </c>
       <c r="T92" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U92" s="28"/>
       <c r="V92" s="112" t="s">
@@ -14410,7 +14440,7 @@
         <v>42980</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="P94" s="28" t="s">
         <v>752</v>
@@ -14425,7 +14455,7 @@
         <v>752</v>
       </c>
       <c r="T94" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U94" s="28"/>
       <c r="V94" s="112" t="s">
@@ -14435,7 +14465,7 @@
         <v>39</v>
       </c>
       <c r="X94" s="103" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="Y94" s="28"/>
       <c r="Z94" s="63"/>
@@ -14501,7 +14531,7 @@
         <v>752</v>
       </c>
       <c r="T95" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U95" s="28"/>
       <c r="V95" s="112" t="s">
@@ -14573,7 +14603,7 @@
         <v>752</v>
       </c>
       <c r="T96" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U96" s="28"/>
       <c r="V96" s="112" t="s">
@@ -14645,7 +14675,7 @@
         <v>752</v>
       </c>
       <c r="T97" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U97" s="28"/>
       <c r="V97" s="112" t="s">
@@ -14717,7 +14747,7 @@
         <v>752</v>
       </c>
       <c r="T98" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U98" s="28"/>
       <c r="V98" s="112" t="s">
@@ -14789,7 +14819,7 @@
         <v>752</v>
       </c>
       <c r="T99" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U99" s="28"/>
       <c r="V99" s="112" t="s">
@@ -14846,7 +14876,7 @@
         <v>44005</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="P100" s="28" t="s">
         <v>752</v>
@@ -14861,7 +14891,7 @@
         <v>752</v>
       </c>
       <c r="T100" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U100" s="28"/>
       <c r="V100" s="112" t="s">
@@ -14871,7 +14901,7 @@
         <v>39</v>
       </c>
       <c r="X100" s="103" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="Y100" s="28"/>
       <c r="Z100" s="63"/>
@@ -14937,7 +14967,7 @@
         <v>752</v>
       </c>
       <c r="T101" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U101" s="28"/>
       <c r="V101" s="112" t="s">
@@ -15009,7 +15039,7 @@
         <v>752</v>
       </c>
       <c r="T102" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U102" s="28"/>
       <c r="V102" s="112" t="s">
@@ -15081,7 +15111,7 @@
         <v>752</v>
       </c>
       <c r="T103" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U103" s="28"/>
       <c r="V103" s="112" t="s">
@@ -15213,7 +15243,7 @@
         <v>752</v>
       </c>
       <c r="T105" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U105" s="28"/>
       <c r="V105" s="112" t="s">
@@ -15324,7 +15354,7 @@
         <v>66</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J107" s="81">
         <v>43555</v>
@@ -15415,7 +15445,7 @@
         <v>752</v>
       </c>
       <c r="T108" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U108" s="28"/>
       <c r="V108" s="112"/>
@@ -15452,16 +15482,26 @@
         <v>66</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J109" s="81">
         <v>43555</v>
       </c>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="119"/>
-      <c r="N109" s="127"/>
-      <c r="O109" s="28"/>
+      <c r="K109" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="L109" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="M109" s="119">
+        <v>229</v>
+      </c>
+      <c r="N109" s="127">
+        <v>43660</v>
+      </c>
+      <c r="O109" s="28" t="s">
+        <v>751</v>
+      </c>
       <c r="P109" s="28" t="s">
         <v>752</v>
       </c>
@@ -15714,7 +15754,7 @@
         <v>42980</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="P113" s="28" t="s">
         <v>752</v>
@@ -15729,7 +15769,7 @@
         <v>752</v>
       </c>
       <c r="T113" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U113" s="28"/>
       <c r="V113" s="112"/>
@@ -15784,7 +15824,7 @@
         <v>43660</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="P114" s="28" t="s">
         <v>752</v>
@@ -15799,7 +15839,7 @@
         <v>752</v>
       </c>
       <c r="T114" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U114" s="28"/>
       <c r="V114" s="112"/>
@@ -15869,7 +15909,7 @@
         <v>752</v>
       </c>
       <c r="T115" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U115" s="28"/>
       <c r="V115" s="112"/>
@@ -15911,13 +15951,21 @@
       <c r="J116" s="81">
         <v>43555</v>
       </c>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="119"/>
+      <c r="K116" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="L116" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="M116" s="119" t="s">
+        <v>928</v>
+      </c>
       <c r="N116" s="127"/>
-      <c r="O116" s="28"/>
+      <c r="O116" t="s">
+        <v>927</v>
+      </c>
       <c r="P116" s="28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="Q116" s="28" t="s">
         <v>752</v>
@@ -15928,7 +15976,9 @@
       <c r="S116" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="T116" s="28"/>
+      <c r="T116" s="131" t="s">
+        <v>954</v>
+      </c>
       <c r="U116" s="28"/>
       <c r="V116" s="112"/>
       <c r="W116" s="30"/>
@@ -15997,7 +16047,7 @@
         <v>752</v>
       </c>
       <c r="T117" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U117" s="28"/>
       <c r="V117" s="112"/>
@@ -16067,7 +16117,7 @@
         <v>752</v>
       </c>
       <c r="T118" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U118" s="28"/>
       <c r="V118" s="112"/>
@@ -16137,7 +16187,7 @@
         <v>752</v>
       </c>
       <c r="T119" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U119" s="28"/>
       <c r="V119" s="112"/>
@@ -16186,13 +16236,13 @@
         <v>756</v>
       </c>
       <c r="M120" s="122" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="N120" s="127">
         <v>43660</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="P120" s="28" t="s">
         <v>752</v>
@@ -16207,7 +16257,7 @@
         <v>752</v>
       </c>
       <c r="T120" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U120" s="28"/>
       <c r="V120" s="112"/>
@@ -16335,7 +16385,7 @@
         <v>752</v>
       </c>
       <c r="T122" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U122" s="28"/>
       <c r="V122" s="112"/>
@@ -16533,7 +16583,7 @@
         <v>752</v>
       </c>
       <c r="T125" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U125" s="28"/>
       <c r="V125" s="112"/>
@@ -16603,7 +16653,7 @@
         <v>752</v>
       </c>
       <c r="T126" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U126" s="28"/>
       <c r="V126" s="112"/>
@@ -16673,7 +16723,7 @@
         <v>752</v>
       </c>
       <c r="T127" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U127" s="28"/>
       <c r="V127" s="112"/>
@@ -16743,7 +16793,7 @@
         <v>752</v>
       </c>
       <c r="T128" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U128" s="30" t="s">
         <v>777</v>
@@ -16885,7 +16935,7 @@
         <v>752</v>
       </c>
       <c r="T130" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U130" s="28"/>
       <c r="V130" s="112"/>
@@ -17025,7 +17075,7 @@
         <v>752</v>
       </c>
       <c r="T132" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U132" s="28"/>
       <c r="V132" s="112"/>
@@ -17095,7 +17145,7 @@
         <v>752</v>
       </c>
       <c r="T133" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U133" s="28"/>
       <c r="V133" s="112"/>
@@ -17235,7 +17285,7 @@
         <v>752</v>
       </c>
       <c r="T135" s="28" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="U135" s="28"/>
       <c r="V135" s="112"/>
@@ -17305,7 +17355,7 @@
         <v>752</v>
       </c>
       <c r="T136" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U136" s="28"/>
       <c r="V136" s="112"/>
@@ -17375,7 +17425,7 @@
         <v>752</v>
       </c>
       <c r="T137" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U137" s="28"/>
       <c r="V137" s="112"/>
@@ -17445,7 +17495,7 @@
         <v>752</v>
       </c>
       <c r="T138" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U138" s="28"/>
       <c r="V138" s="112"/>
@@ -17725,7 +17775,7 @@
         <v>752</v>
       </c>
       <c r="T142" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U142" s="28"/>
       <c r="V142" s="112"/>
@@ -18005,7 +18055,7 @@
         <v>752</v>
       </c>
       <c r="T146" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U146" s="28"/>
       <c r="V146" s="112"/>
@@ -18191,7 +18241,7 @@
         <v>752</v>
       </c>
       <c r="T149" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U149" s="28"/>
       <c r="V149" s="112"/>
@@ -18261,7 +18311,7 @@
         <v>752</v>
       </c>
       <c r="T150" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U150" s="28"/>
       <c r="V150" s="112"/>
@@ -18316,7 +18366,7 @@
         <v>42615</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="P151" s="28" t="s">
         <v>752</v>
@@ -18331,7 +18381,7 @@
         <v>752</v>
       </c>
       <c r="T151" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U151" s="28"/>
       <c r="V151" s="112"/>
@@ -18401,7 +18451,7 @@
         <v>752</v>
       </c>
       <c r="T152" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U152" s="28"/>
       <c r="V152" s="112"/>
@@ -18681,7 +18731,7 @@
         <v>752</v>
       </c>
       <c r="T156" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U156" s="28"/>
       <c r="V156" s="112"/>
@@ -18809,7 +18859,7 @@
         <v>752</v>
       </c>
       <c r="T158" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U158" s="28"/>
       <c r="V158" s="112"/>
@@ -18901,16 +18951,24 @@
       <c r="J160" s="81">
         <v>43555</v>
       </c>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="119"/>
+      <c r="K160" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="L160" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="M160" s="120">
+        <v>245253</v>
+      </c>
       <c r="N160" s="127"/>
-      <c r="O160" s="28"/>
+      <c r="O160" s="132" t="s">
+        <v>953</v>
+      </c>
       <c r="P160" s="28" t="s">
         <v>752</v>
       </c>
       <c r="Q160" s="28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="R160" s="28" t="s">
         <v>752</v>
@@ -19045,7 +19103,7 @@
         <v>752</v>
       </c>
       <c r="T162" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U162" s="28"/>
       <c r="V162" s="112"/>
@@ -19158,7 +19216,7 @@
         <v>43660</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="P164" s="28" t="s">
         <v>752</v>
@@ -19173,7 +19231,7 @@
         <v>752</v>
       </c>
       <c r="T164" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U164" s="28"/>
       <c r="V164" s="112"/>
@@ -19412,7 +19470,7 @@
         <v>43660</v>
       </c>
       <c r="O168" s="20" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="P168" s="28" t="s">
         <v>752</v>
@@ -19427,7 +19485,7 @@
         <v>752</v>
       </c>
       <c r="T168" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U168" s="28"/>
       <c r="V168" s="112"/>
@@ -19497,7 +19555,7 @@
         <v>752</v>
       </c>
       <c r="T169" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U169" s="28"/>
       <c r="V169" s="112"/>
@@ -19567,7 +19625,7 @@
         <v>752</v>
       </c>
       <c r="T170" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U170" s="28"/>
       <c r="V170" s="112"/>
@@ -20835,7 +20893,7 @@
         <v>752</v>
       </c>
       <c r="T190" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U190" s="67"/>
       <c r="V190" s="112"/>
@@ -20905,7 +20963,7 @@
         <v>752</v>
       </c>
       <c r="T191" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U191" s="67"/>
       <c r="V191" s="112"/>
@@ -21091,7 +21149,7 @@
         <v>752</v>
       </c>
       <c r="T194" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U194" s="67"/>
       <c r="V194" s="112"/>
@@ -21191,16 +21249,26 @@
       <c r="J196" s="81">
         <v>43555</v>
       </c>
-      <c r="K196" s="67"/>
-      <c r="L196" s="67"/>
-      <c r="M196" s="123"/>
-      <c r="N196" s="128"/>
-      <c r="O196" s="67"/>
+      <c r="K196" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="L196" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="M196" s="123">
+        <v>29</v>
+      </c>
+      <c r="N196" s="127">
+        <v>42980</v>
+      </c>
+      <c r="O196" t="s">
+        <v>955</v>
+      </c>
       <c r="P196" s="28" t="s">
         <v>752</v>
       </c>
       <c r="Q196" s="28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="R196" s="28" t="s">
         <v>752</v>
@@ -21277,7 +21345,7 @@
         <v>752</v>
       </c>
       <c r="T197" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U197" s="67"/>
       <c r="V197" s="112"/>
@@ -21390,7 +21458,7 @@
         <v>42980</v>
       </c>
       <c r="O199" s="20" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="P199" s="28" t="s">
         <v>752</v>
@@ -21405,7 +21473,7 @@
         <v>752</v>
       </c>
       <c r="T199" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U199" s="67"/>
       <c r="V199" s="112"/>
@@ -21475,7 +21543,7 @@
         <v>752</v>
       </c>
       <c r="T200" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U200" s="67"/>
       <c r="V200" s="112"/>
@@ -21545,7 +21613,7 @@
         <v>752</v>
       </c>
       <c r="T201" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U201" s="67"/>
       <c r="V201" s="112"/>
@@ -21615,7 +21683,7 @@
         <v>752</v>
       </c>
       <c r="T202" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U202" s="67"/>
       <c r="V202" s="112"/>
@@ -21685,7 +21753,7 @@
         <v>752</v>
       </c>
       <c r="T203" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U203" s="67"/>
       <c r="V203" s="112"/>
@@ -21755,7 +21823,7 @@
         <v>752</v>
       </c>
       <c r="T204" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U204" s="67"/>
       <c r="V204" s="112"/>
@@ -21810,7 +21878,7 @@
         <v>43660</v>
       </c>
       <c r="O205" s="20" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="P205" s="28" t="s">
         <v>752</v>
@@ -21825,7 +21893,7 @@
         <v>752</v>
       </c>
       <c r="T205" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U205" s="67"/>
       <c r="V205" s="112"/>
@@ -21895,7 +21963,7 @@
         <v>752</v>
       </c>
       <c r="T206" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U206" s="67"/>
       <c r="V206" s="112"/>
@@ -21965,7 +22033,7 @@
         <v>752</v>
       </c>
       <c r="T207" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U207" s="67"/>
       <c r="V207" s="112"/>
@@ -22151,7 +22219,7 @@
         <v>752</v>
       </c>
       <c r="T210" s="28" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="U210" s="67"/>
       <c r="V210" s="112"/>
@@ -22335,7 +22403,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P214:S216 P205:S209 P116:S118 P74:S77 P2:S9 P106:S114 P134:S135 P11:S13 P128:S128 P29:S30 P26:S26 P131:S131 P151:S157 P138:S149 P46:S52 P33:S44 P159:S161 P23:S23 P54:S56 P185:S185 P86:S91 P58:S63 P15:S20 P188:S188 P171:S182 P80:S80 P93:S94 P83:S83 P66:S72 P163:S168 P201:S201 P100:S102 P104:S104 P211:S211 P198:S199 O183:S183 P96:S96 P191:S196 O78:S78 P120:S124 V2:V211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P214:S216 P205:S209 P116:S118 P74:S77 P2:S9 P93:S94 P134:S135 P11:S13 P128:S128 P29:S30 P26:S26 P131:S131 P151:S157 P138:S149 P46:S52 P33:S44 V2:V211 P23:S23 P54:S56 P185:S185 P159:S161 P58:S63 P15:S20 P188:S188 P171:S182 P80:S80 P86:S91 P83:S83 P66:S72 P163:S168 P201:S201 P100:S102 P104:S104 P211:S211 P198:S199 O183:S183 P96:S96 P106:S114 O78:S78 P120:S124 P191:S196">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W211">
@@ -22367,8 +22435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP68"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
@@ -22376,7 +22444,7 @@
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="31.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
@@ -22384,9 +22452,12 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="16" width="10.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="19" width="10.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" customWidth="1"/>
     <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="22" max="24" width="10.875" bestFit="1" customWidth="1"/>
     <col min="25" max="39" width="0" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="12.125" style="86" customWidth="1"/>
     <col min="50" max="50" width="9.625" style="77"/>
@@ -22572,11 +22643,11 @@
       <c r="BK1" s="51"/>
       <c r="BL1" s="51"/>
       <c r="BM1" s="3"/>
-      <c r="BN1" s="135" t="s">
+      <c r="BN1" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="BO1" s="136"/>
-      <c r="BP1" s="137"/>
+      <c r="BO1" s="137"/>
+      <c r="BP1" s="138"/>
     </row>
     <row r="2" spans="1:68" s="20" customFormat="1">
       <c r="A2" s="19" t="s">
@@ -24430,42 +24501,42 @@
       <c r="K17" s="95">
         <v>41808</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>892</v>
+      <c r="L17" s="22">
+        <v>42937</v>
+      </c>
+      <c r="M17" s="22">
+        <v>43390</v>
+      </c>
+      <c r="N17" s="22">
+        <v>33710</v>
+      </c>
+      <c r="O17" s="22">
+        <v>33710</v>
+      </c>
+      <c r="P17" s="22">
+        <v>43756</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>31589</v>
+      </c>
+      <c r="R17" s="22">
+        <v>39242</v>
+      </c>
+      <c r="S17" s="22">
+        <v>41628</v>
+      </c>
+      <c r="T17" s="22">
+        <v>34915</v>
       </c>
       <c r="U17" s="28"/>
-      <c r="V17" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="W17" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>895</v>
+      <c r="V17" s="22">
+        <v>42167</v>
+      </c>
+      <c r="W17" s="22">
+        <v>40314</v>
+      </c>
+      <c r="X17" s="22">
+        <v>35700</v>
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
@@ -24510,7 +24581,7 @@
         <v>752</v>
       </c>
       <c r="AW17" s="20" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="AX17" s="75"/>
       <c r="AY17" s="72" t="s">
@@ -24578,8 +24649,8 @@
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
-      <c r="X18" s="28" t="s">
-        <v>899</v>
+      <c r="X18" s="95">
+        <v>43689</v>
       </c>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
@@ -24609,7 +24680,7 @@
         <v>43660</v>
       </c>
       <c r="AR18" s="28" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="AS18" s="30" t="s">
         <v>752</v>
@@ -24624,7 +24695,7 @@
         <v>752</v>
       </c>
       <c r="AW18" s="20" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="AX18" s="75"/>
       <c r="AY18" s="72" t="s">
@@ -24738,7 +24809,7 @@
         <v>752</v>
       </c>
       <c r="AW19" s="28" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="AX19" s="75"/>
       <c r="AY19" s="72" t="s">
@@ -24972,13 +25043,13 @@
         <v>757</v>
       </c>
       <c r="AN21" s="20" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="AO21" s="20" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="AP21" s="20" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="AQ21" s="85" t="s">
         <v>751</v>
@@ -24999,7 +25070,7 @@
         <v>757</v>
       </c>
       <c r="AW21" s="20" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="AX21" s="75"/>
       <c r="AY21" s="72" t="s">
@@ -25009,7 +25080,7 @@
         <v>39</v>
       </c>
       <c r="BA21" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="BC21" s="31"/>
       <c r="BF21" s="38"/>
@@ -25238,7 +25309,7 @@
         <v>752</v>
       </c>
       <c r="AW23" s="20" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AX23" s="75"/>
       <c r="AY23" s="72" t="s">
@@ -25355,7 +25426,7 @@
         <v>752</v>
       </c>
       <c r="AW24" s="20" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AX24" s="75"/>
       <c r="AY24" s="72" t="s">
@@ -25429,13 +25500,13 @@
         <v>755</v>
       </c>
       <c r="AP25" s="28" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="AQ25" s="81">
         <v>44005</v>
       </c>
       <c r="AR25" s="20" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="AS25" s="30" t="s">
         <v>752</v>
@@ -25450,7 +25521,7 @@
         <v>752</v>
       </c>
       <c r="AW25" s="20" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="AX25" s="75"/>
       <c r="AY25" s="72" t="s">
@@ -25567,7 +25638,7 @@
         <v>752</v>
       </c>
       <c r="AW26" s="28" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="AX26" s="75"/>
       <c r="AY26" s="72" t="s">
@@ -25669,7 +25740,7 @@
         <v>44005</v>
       </c>
       <c r="AR27" s="20" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="AS27" s="30" t="s">
         <v>752</v>
@@ -25684,7 +25755,7 @@
         <v>752</v>
       </c>
       <c r="AW27" s="20" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="AX27" s="75"/>
       <c r="AY27" s="72" t="s">
@@ -27809,39 +27880,39 @@
       <c r="K48" s="95">
         <v>41808</v>
       </c>
-      <c r="L48" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="P48" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q48" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="R48" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="S48" s="20" t="s">
-        <v>892</v>
+      <c r="L48" s="22">
+        <v>42937</v>
+      </c>
+      <c r="M48" s="22">
+        <v>43390</v>
+      </c>
+      <c r="N48" s="22">
+        <v>33710</v>
+      </c>
+      <c r="O48" s="22">
+        <v>33710</v>
+      </c>
+      <c r="P48" s="22">
+        <v>31589</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>39242</v>
+      </c>
+      <c r="R48" s="22">
+        <v>41628</v>
+      </c>
+      <c r="S48" s="22">
+        <v>34915</v>
       </c>
       <c r="T48" s="28"/>
-      <c r="U48" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="V48" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="W48" s="20" t="s">
-        <v>896</v>
+      <c r="U48" s="22">
+        <v>42167</v>
+      </c>
+      <c r="V48" s="22">
+        <v>40314</v>
+      </c>
+      <c r="W48" s="22">
+        <v>28395</v>
       </c>
       <c r="X48" s="22"/>
       <c r="Y48" s="22"/>
@@ -27887,7 +27958,7 @@
         <v>752</v>
       </c>
       <c r="AW48" s="20" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="AX48" s="75"/>
       <c r="AY48" s="72"/>
@@ -28064,7 +28135,7 @@
         <v>752</v>
       </c>
       <c r="AW50" s="28" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="AX50" s="75"/>
       <c r="AY50" s="72"/>
@@ -28283,13 +28354,13 @@
         <v>751</v>
       </c>
       <c r="AN52" s="20" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="AO52" s="20" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="AP52" s="20" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="AQ52" s="85" t="s">
         <v>751</v>
@@ -28310,7 +28381,7 @@
         <v>757</v>
       </c>
       <c r="AW52" s="20" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="AX52" s="75"/>
       <c r="AY52" s="72"/>
@@ -28669,13 +28740,13 @@
         <v>756</v>
       </c>
       <c r="AP56" s="89" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="AQ56" s="81">
         <v>43660</v>
       </c>
       <c r="AR56" s="20" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="AS56" s="30" t="s">
         <v>752</v>
@@ -28690,7 +28761,7 @@
         <v>752</v>
       </c>
       <c r="AW56" s="20" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="AX56" s="75"/>
       <c r="AY56" s="72"/>
@@ -28798,7 +28869,7 @@
         <v>752</v>
       </c>
       <c r="AW57" s="28" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="AX57" s="75"/>
       <c r="AY57" s="72"/>
@@ -28891,7 +28962,7 @@
         <v>43660</v>
       </c>
       <c r="AR58" s="20" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="AS58" s="30" t="s">
         <v>752</v>
@@ -28906,7 +28977,7 @@
         <v>752</v>
       </c>
       <c r="AW58" s="20" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="AX58" s="75"/>
       <c r="AY58" s="72"/>
@@ -29573,7 +29644,7 @@
   <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -29642,16 +29713,16 @@
         <v>11</v>
       </c>
       <c r="J1" s="96" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="M1" s="96" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>669</v>
@@ -29768,11 +29839,11 @@
       </c>
       <c r="BA1" s="36"/>
       <c r="BB1" s="36"/>
-      <c r="BC1" s="138" t="s">
+      <c r="BC1" s="139" t="s">
         <v>743</v>
       </c>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
+      <c r="BD1" s="139"/>
+      <c r="BE1" s="139"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="19" t="s">
@@ -30453,7 +30524,7 @@
         <v>752</v>
       </c>
       <c r="AM8" s="20" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="AN8" s="29"/>
       <c r="AO8" s="69"/>
@@ -30677,7 +30748,7 @@
         <v>752</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="AN10" s="29"/>
       <c r="AO10" s="69"/>
@@ -30846,16 +30917,16 @@
         <v>11</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="K12" s="96" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="L12" s="96" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="M12" s="96" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>669</v>
@@ -31646,7 +31717,7 @@
         <v>752</v>
       </c>
       <c r="AM19" s="20" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="AN19" s="29"/>
       <c r="AO19" s="69"/>
@@ -31836,7 +31907,7 @@
         <v>752</v>
       </c>
       <c r="AM21" s="20" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="AN21" s="29"/>
       <c r="AO21" s="69"/>
